--- a/biology/Biochimie/Ubiquitine/Ubiquitine.xlsx
+++ b/biology/Biochimie/Ubiquitine/Ubiquitine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ubiquitine est une protéine de 76 acides aminés servant, elle-même, de marqueur de protéines à éliminer. Elle est ainsi appelée parce qu'elle est localisée dans tous les compartiments subcellulaires de toutes les cellules des organismes, elle est dite ubiquitaire. L'ubiquitination désigne la fixation (covalente, ATP dépendante grâce à une cascade d'enzymes E1, E2, E3) spécifique et régulée d'une ou plusieurs ubiquitines sur une protéine cible (il faut quatre ubiquitines pour qu'une protéine soit dégradée). Cette modification post-traductionnelle  a  pour principale fonction la reconnaissance puis la destruction de la protéine ainsi marquée, par le complexe protéolytique du protéasome.
@@ -512,9 +524,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ubiquitine comporte 76 acides aminés et a une masse moléculaire d'environ 8 500 Da. Elle possède une glycine à son extrémité C-terminale lui permettant de former une liaison thiol-ester avec E1. Sa structure est très conservée parmi les différentes espèces d'eucaryotes : l'ubiquitine humaine et celle d'une levure partagent 96 % d'identité pour leur séquence protéique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ubiquitine comporte 76 acides aminés et a une masse moléculaire d'environ 8 500 Da. Elle possède une glycine à son extrémité C-terminale lui permettant de former une liaison thiol-ester avec E1. Sa structure est très conservée parmi les différentes espèces d'eucaryotes : l'ubiquitine humaine et celle d'une levure partagent 96 % d'identité pour leur séquence protéique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe trois systèmes de protéolyse (destruction des protéines) :
 une destruction par des enzymes (protéases) digestives non spécifiques : trypsine, pepsine, chymotrypsine des protides alimentaires ;
@@ -586,7 +602,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2004, Aaron Ciechanover, Avram Hershko  et Irwin Rose reçurent le Prix Nobel de chimie pour leurs travaux sur la dégradation des protéines contrôlée par l'ubiquitine.
 </t>
@@ -617,13 +635,15 @@
           <t>Maladies impliquant l'ubiquitine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le syndrome de Liddle est une maladie rare décrite pour la première fois en 1960 par Grant Liddle et caractérisée par une hypertension artérielle grave. Une des causes de la maladie parmi d'autres est une mutation d'un gène codant une des sous-unités du canal sodique ENaC, qui empêche la fixation de l'enzyme E3 spécifique appelée NEDD4 et ainsi la dégradation d'ENaC[3].
-La maladie de Parkinson pourrait être également causée par l'accumulation de certaines substances secondaires à un déficit en certains enzymes E3[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le syndrome de Liddle est une maladie rare décrite pour la première fois en 1960 par Grant Liddle et caractérisée par une hypertension artérielle grave. Une des causes de la maladie parmi d'autres est une mutation d'un gène codant une des sous-unités du canal sodique ENaC, qui empêche la fixation de l'enzyme E3 spécifique appelée NEDD4 et ainsi la dégradation d'ENaC.
+La maladie de Parkinson pourrait être également causée par l'accumulation de certaines substances secondaires à un déficit en certains enzymes E3.
 Certains cancers pourraient être provoqués par une dégradation excessive de protéines inhibitrices, ou par une accumulation d'autres protides en raison de modification de l'enzyme E3.
 Le système ubiquitine-protéasome aurait également un rôle lors de certaines infections virales.
-Le Syndrome VEXAS (l'enzyme 1 activant le modificateur de type ubiquitine (en) codée par le gène UBA1 est mutée chez les patients)[5].</t>
+Le Syndrome VEXAS (l'enzyme 1 activant le modificateur de type ubiquitine (en) codée par le gène UBA1 est mutée chez les patients).</t>
         </is>
       </c>
     </row>
@@ -651,9 +671,11 @@
           <t>Inhibition du système ubiquitine-protéasome</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bortézomib est l'une des premières molécules développées dans ce but. Il a été utilisé expérimentalement dans le traitement du myélome[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bortézomib est l'une des premières molécules développées dans ce but. Il a été utilisé expérimentalement dans le traitement du myélome.
 </t>
         </is>
       </c>
@@ -682,9 +704,11 @@
           <t>Utilisation du système ubiquitine-protéasome en biologie cellulaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une nouvelle technologie, appelée PROTAC pour PRoteolysis-TArgeting Chimeras, permet de détourner et d'utiliser ce système ubiquitine protéasome en biologie cellulaire dans un intérêt d'exploration du vivant, voire en thérapeutique[7]. Cette technologie consiste en l'utilisation d'une petite molécule chimique bi-fonctionnelle de synthèse qui va recruter simultanément une ubiquitine ligase et une protéine cible permettant leur  recrutement puis le rapprochement spatial et l’induction d’une interaction protéine-protéine (PPI) non physiologique forçant l’ubiquitination de celle-ci et donc sa dégradation spécifique par le système ubiquitine protéasome[8].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une nouvelle technologie, appelée PROTAC pour PRoteolysis-TArgeting Chimeras, permet de détourner et d'utiliser ce système ubiquitine protéasome en biologie cellulaire dans un intérêt d'exploration du vivant, voire en thérapeutique. Cette technologie consiste en l'utilisation d'une petite molécule chimique bi-fonctionnelle de synthèse qui va recruter simultanément une ubiquitine ligase et une protéine cible permettant leur  recrutement puis le rapprochement spatial et l’induction d’une interaction protéine-protéine (PPI) non physiologique forçant l’ubiquitination de celle-ci et donc sa dégradation spécifique par le système ubiquitine protéasome.
 </t>
         </is>
       </c>
